--- a/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/V3/All_BOMs_prepation_v3.xlsx
+++ b/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/V3/All_BOMs_prepation_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\2-Electrical\0 - Development Drawings\1 - Main Board\2 - eeBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\2-Electrical\0 - Development Drawings\1 - Main Board\2 - eeBOM\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="10365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly_export" sheetId="3" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="BOM Mouser.com" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assembly_export!$A$1:$G$183</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Purchase_export!$A$1:$F$46</definedName>
-    <definedName name="Partlist_export_v3" localSheetId="0">Assembly_export!$A$1:$D$183</definedName>
-    <definedName name="PurchaseBOM_V3_export" localSheetId="1">Purchase_export!$A$1:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assembly_export!$A$1:$G$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Purchase_export!$A$1:$I$39</definedName>
+    <definedName name="Partlist_export_v3" localSheetId="0">Assembly_export!$A$1:$D$177</definedName>
+    <definedName name="PurchaseBOM_V3_export" localSheetId="1">Purchase_export!$A$1:$I$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="818">
   <si>
     <t>C1</t>
   </si>
@@ -165,18 +165,6 @@
     <t>C28</t>
   </si>
   <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>22p</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
     <t>C31</t>
   </si>
   <si>
@@ -357,12 +345,6 @@
     <t>J8</t>
   </si>
   <si>
-    <t>JTAG1</t>
-  </si>
-  <si>
-    <t>2X05_1.27MM_SMT</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -660,15 +642,6 @@
     <t>SOT23-6</t>
   </si>
   <si>
-    <t>U$2</t>
-  </si>
-  <si>
-    <t>HEADER_3X6P_ESPPROG</t>
-  </si>
-  <si>
-    <t>2X03_1.27MM_SMT</t>
-  </si>
-  <si>
     <t>U$4</t>
   </si>
   <si>
@@ -687,36 +660,18 @@
     <t>ESP-WROOM-32</t>
   </si>
   <si>
-    <t>Y3</t>
-  </si>
-  <si>
-    <t>32.768kHz</t>
-  </si>
-  <si>
-    <t>CRYSTAL-SMD-3.2X1.5MM</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
     <t>Package</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
     <t>Parts</t>
   </si>
   <si>
     <t>B3F-3120</t>
   </si>
   <si>
-    <t>B3F-31XX</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>BLM18PG121SN1D</t>
   </si>
   <si>
@@ -732,9 +687,6 @@
     <t>CRCW06030000Z0EAC</t>
   </si>
   <si>
-    <t>R4, R5, R6, R7, R8, R11, R16, R32, R43, R47, R65</t>
-  </si>
-  <si>
     <t>2X6 FEMALE</t>
   </si>
   <si>
@@ -804,12 +756,6 @@
     <t>C0402C220J5GAC7411</t>
   </si>
   <si>
-    <t>C29, C30</t>
-  </si>
-  <si>
-    <t>32.768KHZ</t>
-  </si>
-  <si>
     <t>FC-135 32.7680KA-A3</t>
   </si>
   <si>
@@ -843,9 +789,6 @@
     <t>CC0603KRX7R8BB104</t>
   </si>
   <si>
-    <t>C1, C3, C4, C5, C9, C12, C13, C15, C18, C19, C21, C22, C23, C27, C28, C31, C32, C38, C40, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52</t>
-  </si>
-  <si>
     <t>EMZR250ARA221MF80G</t>
   </si>
   <si>
@@ -1143,15 +1086,6 @@
     <t>40.8305</t>
   </si>
   <si>
-    <t>87.05215</t>
-  </si>
-  <si>
-    <t>62.5475</t>
-  </si>
-  <si>
-    <t>89.59215</t>
-  </si>
-  <si>
     <t>55.626</t>
   </si>
   <si>
@@ -1386,12 +1320,6 @@
     <t>59</t>
   </si>
   <si>
-    <t>70.292209375</t>
-  </si>
-  <si>
-    <t>51.45146</t>
-  </si>
-  <si>
     <t>36.1696</t>
   </si>
   <si>
@@ -1728,12 +1656,6 @@
     <t>84.94395</t>
   </si>
   <si>
-    <t>95.8977</t>
-  </si>
-  <si>
-    <t>71.65975</t>
-  </si>
-  <si>
     <t>61.3791</t>
   </si>
   <si>
@@ -1758,12 +1680,6 @@
     <t>9.98855</t>
   </si>
   <si>
-    <t>91.34475</t>
-  </si>
-  <si>
-    <t>26.81605</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -1806,12 +1722,6 @@
     <t>42.4307</t>
   </si>
   <si>
-    <t>88.32215</t>
-  </si>
-  <si>
-    <t>59.69</t>
-  </si>
-  <si>
     <t>Side</t>
   </si>
   <si>
@@ -2572,13 +2482,46 @@
   </si>
   <si>
     <t>Quantity 1</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R7, R8, R11, R16, R32, R43, R47, R65, R35</t>
+  </si>
+  <si>
+    <t>RCS06032K20JNEA</t>
+  </si>
+  <si>
+    <t>C1, C3, C4, C5, C9, C12, C13, C15, C16, C18, C19, C21, C22, C23, C27, C28, C31, C32, C38, C40, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52</t>
+  </si>
+  <si>
+    <t>CP2101-GMR</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ordered QTY</t>
+  </si>
+  <si>
+    <t>Qty per board</t>
+  </si>
+  <si>
+    <t>QTY for 52pcs of boards</t>
+  </si>
+  <si>
+    <t>is on reel?</t>
+  </si>
+  <si>
+    <t>691216710002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2590,6 +2533,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2621,7 +2570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2638,6 +2587,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -5991,10 +5949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6009,25 +5967,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6041,16 +5999,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6064,16 +6022,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6087,16 +6045,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6110,16 +6068,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6133,16 +6091,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6156,16 +6114,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6179,16 +6137,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6202,16 +6160,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6225,16 +6183,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6248,16 +6206,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6271,16 +6229,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6294,16 +6252,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6317,16 +6275,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6340,16 +6298,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6363,16 +6321,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6386,16 +6344,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6409,16 +6367,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6432,16 +6390,16 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6455,16 +6413,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6478,16 +6436,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6501,16 +6459,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6524,16 +6482,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6547,16 +6505,16 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6570,16 +6528,16 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6593,16 +6551,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6616,16 +6574,16 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6639,16 +6597,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6662,16 +6620,16 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6679,73 +6637,73 @@
         <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -6754,44 +6712,44 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1</v>
@@ -6800,21 +6758,21 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -6823,21 +6781,21 @@
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
@@ -6846,44 +6804,44 @@
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1</v>
@@ -6892,21 +6850,21 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1</v>
@@ -6915,21 +6873,21 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1</v>
@@ -6938,21 +6896,21 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1</v>
@@ -6961,21 +6919,21 @@
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1</v>
@@ -6984,21 +6942,21 @@
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -7007,21 +6965,21 @@
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1</v>
@@ -7030,21 +6988,21 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>1</v>
@@ -7053,21 +7011,21 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>1</v>
@@ -7076,39 +7034,39 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -7116,22 +7074,22 @@
         <v>55</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -7139,314 +7097,314 @@
         <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C53" s="3">
+        <v>603</v>
+      </c>
       <c r="D53" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>231</v>
+        <v>59</v>
+      </c>
+      <c r="C54" s="3">
+        <v>603</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="3">
         <v>603</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="3">
         <v>603</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="3">
         <v>603</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="3">
         <v>603</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="3">
         <v>603</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="3">
         <v>603</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3">
         <v>603</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3">
         <v>603</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="3">
-        <v>603</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>413</v>
+      <c r="D63" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="3">
-        <v>603</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>415</v>
+      <c r="B64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -7454,114 +7412,114 @@
         <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>417</v>
+      <c r="D66" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>416</v>
+      <c r="B67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -7569,45 +7527,45 @@
         <v>83</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -7615,272 +7573,275 @@
         <v>87</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>277</v>
+        <v>93</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1140084168</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1140084168</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1140084168</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1140084168</v>
+        <v>94</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>98</v>
+        <v>290</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -7888,1859 +7849,1862 @@
         <v>104</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>448</v>
+        <v>330</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>453</v>
+        <v>324</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>459</v>
+        <v>324</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="B95" s="3">
+        <v>100</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>343</v>
+        <v>444</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B98" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B101" s="3">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="B104" s="3">
+        <v>100</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3">
         <v>100</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B106" s="3">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>481</v>
+        <v>324</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B107" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>482</v>
+        <v>293</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B108" s="3">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B110" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>312</v>
+        <v>468</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B111" s="3">
         <v>47</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B113" s="3">
-        <v>100</v>
+        <v>137</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B114" s="3">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="B116" s="3">
+        <v>10</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B117" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B119" s="3">
-        <v>10</v>
+        <v>144</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B120" s="3">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="B122" s="3">
+        <v>330</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>508</v>
+        <v>326</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>510</v>
+        <v>298</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B123" s="3">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>511</v>
+        <v>326</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>514</v>
+        <v>299</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B125" s="3">
-        <v>330</v>
+        <v>151</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>345</v>
+        <v>493</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>317</v>
+        <v>494</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B126" s="3">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>345</v>
+        <v>495</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>318</v>
+        <v>497</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
+      </c>
+      <c r="B128" s="3">
+        <v>47</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B129" s="3">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>519</v>
+        <v>444</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B130" s="3">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B131" s="3">
-        <v>47</v>
+        <v>157</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>526</v>
+        <v>340</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="B134" s="3">
+        <v>47</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>528</v>
+        <v>466</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>130</v>
+        <v>162</v>
+      </c>
+      <c r="B135" s="3">
+        <v>47</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>359</v>
+        <v>511</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B137" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="3">
-        <v>47</v>
+        <v>165</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>533</v>
+        <v>428</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B140" s="3">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>536</v>
+        <v>330</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>539</v>
+        <v>432</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>538</v>
+        <v>462</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>543</v>
+        <v>354</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>544</v>
+        <v>438</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E155" s="3" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>385</v>
+        <v>532</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>385</v>
+        <v>532</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>385</v>
+        <v>535</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>217</v>
+        <v>189</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -9748,436 +9712,298 @@
         <v>193</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>58</v>
+        <v>248</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>572</v>
+        <v>417</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>573</v>
+        <v>417</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -10187,1077 +10013,1317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.7109375" customWidth="1"/>
-    <col min="7" max="7" width="125.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.7109375" customWidth="1"/>
+    <col min="10" max="10" width="125.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>814</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>588</v>
+        <v>813</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>587</v>
+        <v>816</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <f t="shared" ref="B2:B39" si="0">A2*52</f>
+        <v>520</v>
+      </c>
+      <c r="C2" s="11">
+        <v>530</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="3">
+        <v>603</v>
+      </c>
+      <c r="I2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>807</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="3">
-        <v>603</v>
-      </c>
-      <c r="F3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C4" s="11">
+        <v>53</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C5" s="11">
+        <v>114</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C6" s="11">
+        <v>108</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11">
+        <v>160</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" s="3">
+        <v>61300411121</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C8" s="11">
+        <v>114</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>1352</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1370</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="D10" s="3">
-        <v>61300411121</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C10" s="11">
+        <v>114</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="C11" s="11">
+        <v>530</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>236</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="C12" s="11">
+        <v>218</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C13" s="11">
+        <v>114</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C14" s="11">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="C15" s="11">
+        <v>322</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E15" s="3">
+        <v>47</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C16" s="11">
+        <v>55</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="C17" s="11">
+        <v>500</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="C18" s="11">
+        <v>218</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="J18" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>1612</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1650</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>809</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C20" s="11">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="J20" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C21" s="11">
+        <v>114</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E21" s="3">
+        <v>330</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C22" s="11">
+        <v>52</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1140084168</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1140084168</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1140084168</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="C23" s="10">
+        <v>157</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>244</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>243</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C24" s="10">
+        <v>108</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="J24" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="C25" s="10">
+        <v>521</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="F25" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G25" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="I25" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C26" s="10">
+        <v>53</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C27" s="10">
+        <v>52</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>11</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>330</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>572</v>
+      </c>
+      <c r="C28" s="10">
+        <v>580</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C29" s="10">
+        <v>53</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>1</v>
       </c>
-      <c r="B28" s="3">
-        <v>1140084168</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1140084168</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1140084168</v>
-      </c>
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C30" s="10">
+        <v>53</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" t="s">
-        <v>263</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C31" s="10">
+        <v>53</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>265</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="D31" s="3">
-        <v>61200621621</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>269</v>
+      <c r="B32" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C32" s="10">
+        <v>53</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>812</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="C33" s="10">
+        <v>215</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>11</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C34" s="10">
+        <v>52</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C35" s="10">
         <v>105</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" t="s">
-        <v>271</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>272</v>
+      <c r="D35" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>92</v>
+      <c r="B36" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C36" s="10">
+        <v>53</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>84</v>
+      <c r="B37" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C37" s="10">
+        <v>53</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>812</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>273</v>
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C38" s="10">
+        <v>105</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>274</v>
+      <c r="B39" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C39" s="10">
+        <v>53</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" t="s">
         <v>90</v>
       </c>
-      <c r="F39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F41" t="s">
-        <v>278</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" t="s">
-        <v>279</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F44" t="s">
-        <v>283</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F45" t="s">
-        <v>284</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>658</v>
-      </c>
+      <c r="J39" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Samtec/TSW-102-07-G-S?qs=sGAEpiMZZMs%252BGHln7q6pmz2Hw3mMq%2FBhO6zjU8nn2Yw%3D"/>
+    <hyperlink ref="G6" r:id="rId1" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Samtec/TSW-102-07-G-S?qs=sGAEpiMZZMs%252BGHln7q6pmz2Hw3mMq%2FBhO6zjU8nn2Yw%3D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12737,320 +12803,320 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B3" s="8">
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B6" s="8">
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -13061,626 +13127,626 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B11" s="8">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B12" s="8">
         <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>626</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B14" s="8">
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B15" s="8">
         <v>4</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>725</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>729</v>
+        <v>699</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B20" s="8">
         <v>6</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B22" s="8">
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>743</v>
+        <v>713</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>746</v>
+        <v>716</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>748</v>
+        <v>718</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>749</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B25" s="8">
         <v>30</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>751</v>
+        <v>721</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>751</v>
+        <v>721</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>754</v>
+        <v>724</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>755</v>
+        <v>725</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B27" s="8">
         <v>2</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -13691,101 +13757,101 @@
         <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>760</v>
+        <v>730</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>761</v>
+        <v>731</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>761</v>
+        <v>731</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>762</v>
+        <v>732</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>763</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B29" s="8">
         <v>3</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>764</v>
+        <v>734</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B30" s="8">
         <v>2</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -13796,556 +13862,556 @@
         <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>772</v>
+        <v>742</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>774</v>
+        <v>744</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>774</v>
+        <v>744</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>776</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>777</v>
+        <v>747</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>780</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>781</v>
+        <v>751</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>782</v>
+        <v>752</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>782</v>
+        <v>752</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>783</v>
+        <v>753</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>784</v>
+        <v>754</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B34" s="8">
         <v>11</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>785</v>
+        <v>755</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>786</v>
+        <v>756</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>786</v>
+        <v>756</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>787</v>
+        <v>757</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>788</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>789</v>
+        <v>759</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>791</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>792</v>
+        <v>762</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>793</v>
+        <v>763</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>793</v>
+        <v>763</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>795</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>796</v>
+        <v>766</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>797</v>
+        <v>767</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>797</v>
+        <v>767</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>798</v>
+        <v>768</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>799</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>801</v>
+        <v>771</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>801</v>
+        <v>771</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>803</v>
+        <v>773</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>804</v>
+        <v>774</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>807</v>
+        <v>777</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B40" s="8">
         <v>4</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B42" s="8">
         <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>818</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>819</v>
+        <v>789</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>822</v>
+        <v>792</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>823</v>
+        <v>793</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>825</v>
+        <v>795</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>826</v>
+        <v>796</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B45" s="8">
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>830</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="B46" s="8">
         <v>1</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
